--- a/Excel/JibeAutomation.xlsx
+++ b/Excel/JibeAutomation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Crew Admin" sheetId="11" r:id="rId9"/>
     <sheet name="ControlType key" sheetId="13" r:id="rId10"/>
     <sheet name="ApprovalSetting" sheetId="16" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9097" uniqueCount="4450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9059" uniqueCount="4447">
   <si>
     <t>Main Page</t>
   </si>
@@ -13420,9 +13419,6 @@
     <t>AprovalSettings</t>
   </si>
   <si>
-    <t>Add Button</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
@@ -13435,9 +13431,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -13471,19 +13464,16 @@
     <t>C10</t>
   </si>
   <si>
-    <t>Priti</t>
-  </si>
-  <si>
-    <t>priti</t>
-  </si>
-  <si>
-    <t>jibe@123</t>
-  </si>
-  <si>
-    <t>Alarm Unit</t>
-  </si>
-  <si>
-    <t>Jibe1</t>
+    <t>Priti1</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>RadioButton_Ctrl</t>
   </si>
 </sst>
 </file>
@@ -13873,7 +13863,7 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
@@ -14045,9 +14035,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -14364,7 +14351,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection sqref="A1:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14382,8 +14369,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>509</v>
+      <c r="B2" t="s">
+        <v>3978</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -14391,7 +14378,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2368</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -14435,7 +14422,6 @@
     <hyperlink ref="B8" r:id="rId4"/>
     <hyperlink ref="B13" r:id="rId5"/>
     <hyperlink ref="B3" r:id="rId6"/>
-    <hyperlink ref="B2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14443,10 +14429,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -14456,18 +14442,18 @@
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4417</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4428</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>4429</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -14475,10 +14461,10 @@
         <v>4418</v>
       </c>
       <c r="C2" t="s">
-        <v>4433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -14486,10 +14472,10 @@
         <v>4419</v>
       </c>
       <c r="C3" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14497,10 +14483,10 @@
         <v>4420</v>
       </c>
       <c r="C4" t="s">
-        <v>4434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -14508,10 +14494,10 @@
         <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -14519,10 +14505,10 @@
         <v>4421</v>
       </c>
       <c r="C6" t="s">
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -14530,10 +14516,10 @@
         <v>4422</v>
       </c>
       <c r="C7" t="s">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -14541,10 +14527,10 @@
         <v>4423</v>
       </c>
       <c r="C8" t="s">
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -14552,10 +14538,10 @@
         <v>4424</v>
       </c>
       <c r="C9" t="s">
-        <v>4442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -14563,10 +14549,10 @@
         <v>4425</v>
       </c>
       <c r="C10" t="s">
-        <v>4443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -14574,50 +14560,23 @@
         <v>4426</v>
       </c>
       <c r="C11" t="s">
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
       <c r="C12" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>4428</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4419</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>4420</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>4421</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -14627,10 +14586,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14638,14 +14597,16 @@
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -14680,12 +14641,12 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="91" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="91" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>4427</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3621</v>
       </c>
@@ -14702,13 +14663,13 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3624</v>
       </c>
@@ -14725,18 +14686,18 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>4434</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3627</v>
       </c>
       <c r="C5" t="s">
-        <v>4431</v>
+        <v>4430</v>
       </c>
       <c r="D5" t="s">
         <v>3628</v>
@@ -14748,13 +14709,13 @@
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3630</v>
       </c>
@@ -14771,13 +14732,13 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3634</v>
       </c>
@@ -14794,13 +14755,13 @@
         <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>3047</v>
       </c>
@@ -14817,13 +14778,13 @@
         <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>3637</v>
       </c>
@@ -14840,253 +14801,70 @@
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>4415</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>4416</v>
-      </c>
-      <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
-        <v>4448</v>
-      </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>2542</v>
+      </c>
+      <c r="J11" t="s">
+        <v>4444</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>2552</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4444</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>2708</v>
+      </c>
+      <c r="J13" t="s">
+        <v>4444</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>4443</v>
+      </c>
+      <c r="J14" t="s">
+        <v>4444</v>
+      </c>
+      <c r="K14" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>2542</v>
+        <v>2552</v>
       </c>
       <c r="J15" t="s">
-        <v>4449</v>
+        <v>4444</v>
       </c>
       <c r="K15" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>2708</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4449</v>
-      </c>
-      <c r="K16" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>4445</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4449</v>
-      </c>
-      <c r="K17" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>2552</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4449</v>
-      </c>
-      <c r="K18" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A14:K14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="40" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>4415</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
-        <v>4448</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>2542</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4449</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>2708</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4449</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>4445</v>
-      </c>
-      <c r="J5" t="s">
-        <v>4449</v>
-      </c>
-      <c r="K5" t="s">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>2552</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4449</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" s="34"/>
+        <v>4437</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A2:XFD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15096,8 +14874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15120,10 +14898,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4446</v>
+        <v>3980</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4447</v>
+        <v>3981</v>
       </c>
       <c r="C2" t="s">
         <v>508</v>
@@ -15154,7 +14932,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -15219,8 +14997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I499"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20063,8 +19841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2053"/>
   <sheetViews>
-    <sheetView topLeftCell="A1198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1197" sqref="B1197:F1230"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49966,8 +49744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/JibeAutomation.xlsx
+++ b/Excel/JibeAutomation.xlsx
@@ -19841,7 +19841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2053"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -49744,8 +49744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
